--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
@@ -52,70 +58,85 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>guilty</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>frightening</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
@@ -136,36 +157,24 @@
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
@@ -178,16 +187,13 @@
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>netflix</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -773,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.7017543859649122</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,16 +1000,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,38 +1129,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.4666666666666667</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.4482758620689655</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.2962962962962963</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5289855072463768</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.1944444444444444</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.1707317073170732</v>
+        <v>0.02473498233215548</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.1458333333333333</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1491,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.1076923076923077</v>
+        <v>0.01506024096385542</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>58</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4705882352941176</v>
+        <v>0.55</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,16 +1550,16 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.075591985428051</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="L21">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1015</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.06315789473684211</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4571428571428571</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,31 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23">
-        <v>0.02826855123674912</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>275</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1655,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4230769230769231</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,31 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L24">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>646</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1681,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3829787234042553</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,31 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25">
-        <v>0.01904761904761905</v>
-      </c>
-      <c r="L25">
-        <v>6</v>
-      </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1707,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1791,31 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26">
-        <v>0.01481481481481482</v>
-      </c>
-      <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>532</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1823,13 +1733,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1841,31 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27">
-        <v>0.004608294930875576</v>
-      </c>
-      <c r="L27">
         <v>8</v>
-      </c>
-      <c r="M27">
-        <v>8</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1728</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1873,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3043478260869565</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1891,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1899,13 +1785,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1794871794871795</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1917,7 +1803,189 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>64</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
